--- a/PHPtoExcel/uploads/mps_coba.xlsx
+++ b/PHPtoExcel/uploads/mps_coba.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naufa\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E367785E-36E1-4044-9DB9-560F77D19CDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746503FE-9B23-4ACA-9FB5-79559D1B7744}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C08F1F49-B56C-4E82-9A11-4F303E27D46A}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="12150" windowHeight="21285" xr2:uid="{C08F1F49-B56C-4E82-9A11-4F303E27D46A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -86,7 +86,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -403,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE2B7559-46B3-4F83-BFBA-32A21F8BF8A2}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,7 +433,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="1">
-        <v>44195</v>
+        <v>44193</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -481,18 +481,22 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>44202</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>1003</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -501,12 +505,12 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>1000</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -515,12 +519,12 @@
         <v>4</v>
       </c>
       <c r="D8">
-        <v>1001</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -529,22 +533,26 @@
         <v>4</v>
       </c>
       <c r="D9">
-        <v>1002</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="1">
-        <v>44209</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>1007</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -553,12 +561,12 @@
         <v>4</v>
       </c>
       <c r="D11">
-        <v>1000</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -567,28 +575,12 @@
         <v>4</v>
       </c>
       <c r="D12">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>3</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13">
-        <v>1002</v>
+        <v>1009</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="1">
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B10:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/PHPtoExcel/uploads/mps_coba.xlsx
+++ b/PHPtoExcel/uploads/mps_coba.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naufa\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746503FE-9B23-4ACA-9FB5-79559D1B7744}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BE3BDA-4EDE-4156-87EF-08098530DB92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="12150" windowHeight="21285" xr2:uid="{C08F1F49-B56C-4E82-9A11-4F303E27D46A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C08F1F49-B56C-4E82-9A11-4F303E27D46A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>no</t>
   </si>
@@ -39,13 +39,100 @@
     <t>qty</t>
   </si>
   <si>
-    <t>emblem</t>
-  </si>
-  <si>
-    <t>tgl kirim</t>
-  </si>
-  <si>
     <t>Naufal</t>
+  </si>
+  <si>
+    <t>tgl_kirim</t>
+  </si>
+  <si>
+    <t>kode_pesanan</t>
+  </si>
+  <si>
+    <t>pes-0001</t>
+  </si>
+  <si>
+    <t>pes-0002</t>
+  </si>
+  <si>
+    <t>pes-0003</t>
+  </si>
+  <si>
+    <t>pes-0004</t>
+  </si>
+  <si>
+    <t>pes-0005</t>
+  </si>
+  <si>
+    <t>pes-0006</t>
+  </si>
+  <si>
+    <t>pes-0007</t>
+  </si>
+  <si>
+    <t>pes-0008</t>
+  </si>
+  <si>
+    <t>pes-0009</t>
+  </si>
+  <si>
+    <t>pes-0010</t>
+  </si>
+  <si>
+    <t>emblem 1</t>
+  </si>
+  <si>
+    <t>emblem 2</t>
+  </si>
+  <si>
+    <t>emblem 3</t>
+  </si>
+  <si>
+    <t>kaca 1</t>
+  </si>
+  <si>
+    <t>kaca 2</t>
+  </si>
+  <si>
+    <t>kaca 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mangkok 1 </t>
+  </si>
+  <si>
+    <t>mangkok 2</t>
+  </si>
+  <si>
+    <t>mangkok 3</t>
+  </si>
+  <si>
+    <t>mangkok 4</t>
+  </si>
+  <si>
+    <t>Zayn</t>
+  </si>
+  <si>
+    <t>Rifat</t>
+  </si>
+  <si>
+    <t>Nur</t>
+  </si>
+  <si>
+    <t>Dita</t>
+  </si>
+  <si>
+    <t>Afifah</t>
+  </si>
+  <si>
+    <t>Putrama</t>
+  </si>
+  <si>
+    <t>Lantang</t>
+  </si>
+  <si>
+    <t>Nirwana</t>
+  </si>
+  <si>
+    <t>Satria</t>
   </si>
 </sst>
 </file>
@@ -55,10 +142,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -86,9 +179,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,18 +494,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE2B7559-46B3-4F83-BFBA-32A21F8BF8A2}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -427,161 +521,215 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1">
-        <v>44193</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2">
+        <v>1000</v>
+      </c>
+      <c r="E2" s="1">
+        <v>44207</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3">
+        <v>1001</v>
+      </c>
+      <c r="E3" s="1">
+        <v>44207</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4">
+        <v>1002</v>
+      </c>
+      <c r="E4" s="1">
+        <v>44207</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>1003</v>
+      </c>
+      <c r="E5" s="1">
+        <v>44207</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>1004</v>
+      </c>
+      <c r="E6" s="1">
+        <v>44207</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1005</v>
+      </c>
+      <c r="E7" s="1">
+        <v>44207</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D8">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1006</v>
+      </c>
+      <c r="E8" s="1">
+        <v>44207</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="D9">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1007</v>
+      </c>
+      <c r="E9" s="1">
+        <v>44207</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="D10">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1008</v>
+      </c>
+      <c r="E10" s="1">
+        <v>44207</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="D11">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12">
         <v>1009</v>
       </c>
+      <c r="E11" s="1">
+        <v>44207</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:D2"/>
-  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
